--- a/Datasets/TestSets/test2/four-way.xlsx
+++ b/Datasets/TestSets/test2/four-way.xlsx
@@ -71,7 +71,7 @@
     <t>Class</t>
   </si>
   <si>
-    <t>6pom_0</t>
+    <t>4l81_0</t>
   </si>
   <si>
     <t>Non-coaxial</t>
@@ -80,31 +80,16 @@
     <t>Coaxial</t>
   </si>
   <si>
-    <t>8s95_0</t>
+    <t>4lck_1</t>
   </si>
   <si>
-    <t>8s95_1</t>
+    <t>6pmo_0</t>
   </si>
   <si>
-    <t>8uo6_1</t>
+    <t>6pom_0</t>
   </si>
   <si>
-    <t>8uye_0</t>
-  </si>
-  <si>
-    <t>4l81_0</t>
-  </si>
-  <si>
-    <t>7zj4_0</t>
-  </si>
-  <si>
-    <t>7zj4_1</t>
-  </si>
-  <si>
-    <t>7zj4_2</t>
-  </si>
-  <si>
-    <t>7zj4_3</t>
+    <t>6ufm_0</t>
   </si>
   <si>
     <t>8dp3_0</t>
@@ -140,10 +125,16 @@
     <t>7ptk_9</t>
   </si>
   <si>
-    <t>6ufm_0</t>
+    <t>7zj4_0</t>
   </si>
   <si>
-    <t>4lck_1</t>
+    <t>7zj4_1</t>
+  </si>
+  <si>
+    <t>7zj4_2</t>
+  </si>
+  <si>
+    <t>7zj4_3</t>
   </si>
   <si>
     <t>8btz_0</t>
@@ -158,10 +149,19 @@
     <t>8btz_3</t>
   </si>
   <si>
-    <t>8uys_0</t>
+    <t>8s95_0</t>
   </si>
   <si>
-    <t>6pmo_0</t>
+    <t>8s95_1</t>
+  </si>
+  <si>
+    <t>8uo6_1</t>
+  </si>
+  <si>
+    <t>8uye_0</t>
+  </si>
+  <si>
+    <t>8uys_0</t>
   </si>
 </sst>
 </file>
@@ -178,11 +178,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -192,7 +193,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -200,14 +201,14 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -223,7 +224,7 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -254,7 +255,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -262,7 +263,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -270,7 +271,7 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -278,14 +279,14 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -293,42 +294,42 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1063,6 +1064,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -1326,7 +1334,7 @@
   <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="J1" sqref="H$1:H$1048576 J$1:J$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -1383,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -1398,16 +1406,16 @@
         <v>0</v>
       </c>
       <c r="H2" s="1">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I2" s="1">
-        <v>-10.31</v>
+        <v>-4.97</v>
       </c>
       <c r="J2" s="1">
-        <v>-1.43</v>
+        <v>-5.69</v>
       </c>
       <c r="K2" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L2" s="1">
         <v>4</v>
@@ -1424,13 +1432,13 @@
         <v>14</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -1442,19 +1450,19 @@
         <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>-3.7</v>
+        <v>-1.5</v>
       </c>
       <c r="I3" s="1">
-        <v>-1.43</v>
+        <v>-5.69</v>
       </c>
       <c r="J3" s="1">
-        <v>-6.78</v>
+        <v>-0.99</v>
       </c>
       <c r="K3" s="1">
         <v>4</v>
       </c>
       <c r="L3" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M3" s="1">
         <v>2</v>
@@ -1468,10 +1476,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -1486,16 +1494,16 @@
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="I4" s="1">
-        <v>-6.78</v>
+        <v>-0.99</v>
       </c>
       <c r="J4" s="1">
-        <v>-6.85</v>
+        <v>-5.88</v>
       </c>
       <c r="K4" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L4" s="1">
         <v>5</v>
@@ -1512,13 +1520,13 @@
         <v>14</v>
       </c>
       <c r="B5" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -1530,19 +1538,19 @@
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>-0.7</v>
+        <v>-3.3</v>
       </c>
       <c r="I5" s="1">
-        <v>-6.85</v>
+        <v>-5.88</v>
       </c>
       <c r="J5" s="1">
-        <v>-10.31</v>
+        <v>-4.97</v>
       </c>
       <c r="K5" s="1">
         <v>5</v>
       </c>
       <c r="L5" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M5" s="1">
         <v>2</v>
@@ -1559,10 +1567,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -1574,19 +1582,19 @@
         <v>0</v>
       </c>
       <c r="H6" s="1">
-        <v>-3.4</v>
+        <v>8.1</v>
       </c>
       <c r="I6" s="1">
-        <v>-21</v>
+        <v>-0.34</v>
       </c>
       <c r="J6" s="1">
-        <v>-11.05</v>
+        <v>-1.43</v>
       </c>
       <c r="K6" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="L6" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M6" s="1">
         <v>2</v>
@@ -1600,13 +1608,13 @@
         <v>17</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -1618,19 +1626,19 @@
         <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>-3.3</v>
+        <v>-3.7</v>
       </c>
       <c r="I7" s="1">
-        <v>-11.05</v>
+        <v>-1.43</v>
       </c>
       <c r="J7" s="1">
-        <v>-2.59</v>
+        <v>-6.78</v>
       </c>
       <c r="K7" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L7" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M7" s="1">
         <v>2</v>
@@ -1644,10 +1652,10 @@
         <v>17</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -1662,19 +1670,19 @@
         <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>-4</v>
+        <v>8.1</v>
       </c>
       <c r="I8" s="1">
-        <v>-2.59</v>
+        <v>-6.78</v>
       </c>
       <c r="J8" s="1">
-        <v>1.1</v>
+        <v>-6.85</v>
       </c>
       <c r="K8" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L8" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M8" s="1">
         <v>2</v>
@@ -1688,13 +1696,13 @@
         <v>17</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -1706,19 +1714,19 @@
         <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>-3.3</v>
+        <v>-0.7</v>
       </c>
       <c r="I9" s="1">
-        <v>1.1</v>
+        <v>-6.85</v>
       </c>
       <c r="J9" s="1">
-        <v>-21</v>
+        <v>-0.34</v>
       </c>
       <c r="K9" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L9" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="M9" s="1">
         <v>2</v>
@@ -1750,13 +1758,13 @@
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I10" s="1">
-        <v>-10.56</v>
+        <v>-10.31</v>
       </c>
       <c r="J10" s="1">
-        <v>-3.76</v>
+        <v>-1.43</v>
       </c>
       <c r="K10" s="1">
         <v>7</v>
@@ -1794,19 +1802,19 @@
         <v>0</v>
       </c>
       <c r="H11" s="1">
-        <v>-3.6</v>
+        <v>-3.7</v>
       </c>
       <c r="I11" s="1">
-        <v>-3.76</v>
+        <v>-1.43</v>
       </c>
       <c r="J11" s="1">
-        <v>-21</v>
+        <v>-6.78</v>
       </c>
       <c r="K11" s="1">
         <v>4</v>
       </c>
       <c r="L11" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="M11" s="1">
         <v>2</v>
@@ -1838,16 +1846,16 @@
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="I12" s="1">
-        <v>-21</v>
+        <v>-6.78</v>
       </c>
       <c r="J12" s="1">
-        <v>-6.62</v>
+        <v>-6.85</v>
       </c>
       <c r="K12" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="L12" s="1">
         <v>5</v>
@@ -1882,13 +1890,13 @@
         <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>-2.2</v>
+        <v>-0.7</v>
       </c>
       <c r="I13" s="1">
-        <v>-6.62</v>
+        <v>-6.85</v>
       </c>
       <c r="J13" s="1">
-        <v>-10.56</v>
+        <v>-10.31</v>
       </c>
       <c r="K13" s="1">
         <v>5</v>
@@ -1926,13 +1934,13 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I14" s="1">
-        <v>-10.56</v>
+        <v>-10.31</v>
       </c>
       <c r="J14" s="1">
-        <v>-3.76</v>
+        <v>-1.43</v>
       </c>
       <c r="K14" s="1">
         <v>7</v>
@@ -1970,19 +1978,19 @@
         <v>0</v>
       </c>
       <c r="H15" s="1">
-        <v>-3.6</v>
+        <v>-3.7</v>
       </c>
       <c r="I15" s="1">
-        <v>-3.76</v>
+        <v>-1.43</v>
       </c>
       <c r="J15" s="1">
-        <v>-20.04</v>
+        <v>-6.78</v>
       </c>
       <c r="K15" s="1">
         <v>4</v>
       </c>
       <c r="L15" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="M15" s="1">
         <v>2</v>
@@ -2014,16 +2022,16 @@
         <v>0</v>
       </c>
       <c r="H16" s="1">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="I16" s="1">
-        <v>-20.04</v>
+        <v>-6.78</v>
       </c>
       <c r="J16" s="1">
-        <v>-6.62</v>
+        <v>-6.85</v>
       </c>
       <c r="K16" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="L16" s="1">
         <v>5</v>
@@ -2058,13 +2066,13 @@
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <v>-2.2</v>
+        <v>-0.7</v>
       </c>
       <c r="I17" s="1">
-        <v>-6.62</v>
+        <v>-6.85</v>
       </c>
       <c r="J17" s="1">
-        <v>-10.56</v>
+        <v>-10.31</v>
       </c>
       <c r="K17" s="1">
         <v>5</v>
@@ -2087,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="C18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -2102,19 +2110,19 @@
         <v>0</v>
       </c>
       <c r="H18" s="1">
-        <v>-2.4</v>
+        <v>8.1</v>
       </c>
       <c r="I18" s="1">
-        <v>-2.89</v>
+        <v>-12.07</v>
       </c>
       <c r="J18" s="1">
-        <v>-0.26</v>
+        <v>-3.76</v>
       </c>
       <c r="K18" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L18" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M18" s="1">
         <v>2</v>
@@ -2128,13 +2136,13 @@
         <v>20</v>
       </c>
       <c r="B19" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -2146,19 +2154,19 @@
         <v>0</v>
       </c>
       <c r="H19" s="1">
-        <v>-3.4</v>
+        <v>-3.5</v>
       </c>
       <c r="I19" s="1">
-        <v>-0.26</v>
+        <v>-3.76</v>
       </c>
       <c r="J19" s="1">
-        <v>-6.92</v>
+        <v>-3.63</v>
       </c>
       <c r="K19" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L19" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M19" s="1">
         <v>2</v>
@@ -2172,10 +2180,10 @@
         <v>20</v>
       </c>
       <c r="B20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -2190,19 +2198,19 @@
         <v>0</v>
       </c>
       <c r="H20" s="1">
-        <v>-3.3</v>
+        <v>8.1</v>
       </c>
       <c r="I20" s="1">
-        <v>-6.92</v>
+        <v>-3.63</v>
       </c>
       <c r="J20" s="1">
-        <v>-10.66</v>
+        <v>-6.86</v>
       </c>
       <c r="K20" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L20" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M20" s="1">
         <v>2</v>
@@ -2216,13 +2224,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -2237,16 +2245,16 @@
         <v>-2.1</v>
       </c>
       <c r="I21" s="1">
-        <v>-10.66</v>
+        <v>-6.86</v>
       </c>
       <c r="J21" s="1">
-        <v>-2.89</v>
+        <v>-12.07</v>
       </c>
       <c r="K21" s="1">
+        <v>5</v>
+      </c>
+      <c r="L21" s="1">
         <v>7</v>
-      </c>
-      <c r="L21" s="1">
-        <v>6</v>
       </c>
       <c r="M21" s="1">
         <v>2</v>
@@ -2263,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -2278,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="H22" s="1">
-        <v>6.3</v>
+        <v>-3.4</v>
       </c>
       <c r="I22" s="1">
-        <v>-4.97</v>
+        <v>-11.96</v>
       </c>
       <c r="J22" s="1">
-        <v>-5.69</v>
+        <v>-18.58</v>
       </c>
       <c r="K22" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L22" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M22" s="1">
         <v>2</v>
@@ -2304,37 +2312,37 @@
         <v>21</v>
       </c>
       <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>-3.3</v>
+      </c>
+      <c r="I23" s="1">
+        <v>-18.58</v>
+      </c>
+      <c r="J23" s="1">
+        <v>-5.85</v>
+      </c>
+      <c r="K23" s="1">
+        <v>10</v>
+      </c>
+      <c r="L23" s="1">
         <v>4</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1">
-        <v>2</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1">
-        <v>-1.5</v>
-      </c>
-      <c r="I23" s="1">
-        <v>-5.69</v>
-      </c>
-      <c r="J23" s="1">
-        <v>-0.99</v>
-      </c>
-      <c r="K23" s="1">
-        <v>4</v>
-      </c>
-      <c r="L23" s="1">
-        <v>3</v>
       </c>
       <c r="M23" s="1">
         <v>2</v>
@@ -2351,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -2366,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="H24" s="1">
-        <v>6.9</v>
+        <v>-2.4</v>
       </c>
       <c r="I24" s="1">
-        <v>-0.99</v>
+        <v>-5.85</v>
       </c>
       <c r="J24" s="1">
-        <v>-5.88</v>
+        <v>1.1</v>
       </c>
       <c r="K24" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L24" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M24" s="1">
         <v>2</v>
@@ -2392,13 +2400,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
       </c>
       <c r="D25" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1">
         <v>0</v>
@@ -2413,16 +2421,16 @@
         <v>-3.3</v>
       </c>
       <c r="I25" s="1">
-        <v>-5.88</v>
+        <v>1.1</v>
       </c>
       <c r="J25" s="1">
-        <v>-4.97</v>
+        <v>-11.96</v>
       </c>
       <c r="K25" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L25" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M25" s="1">
         <v>2</v>
@@ -2454,19 +2462,19 @@
         <v>0</v>
       </c>
       <c r="H26" s="1">
-        <v>-2.2</v>
+        <v>-2.1</v>
       </c>
       <c r="I26" s="1">
-        <v>-36.49</v>
+        <v>-24.05</v>
       </c>
       <c r="J26" s="1">
-        <v>-12.88</v>
+        <v>-21.73</v>
       </c>
       <c r="K26" s="1">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L26" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M26" s="1">
         <v>2</v>
@@ -2498,19 +2506,19 @@
         <v>0</v>
       </c>
       <c r="H27" s="1">
-        <v>-2.4</v>
+        <v>-1.3</v>
       </c>
       <c r="I27" s="1">
-        <v>-12.88</v>
+        <v>-21.73</v>
       </c>
       <c r="J27" s="1">
-        <v>-8.88</v>
+        <v>-12.34</v>
       </c>
       <c r="K27" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L27" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M27" s="1">
         <v>2</v>
@@ -2542,19 +2550,19 @@
         <v>0</v>
       </c>
       <c r="H28" s="1">
-        <v>-2.1</v>
+        <v>-2.4</v>
       </c>
       <c r="I28" s="1">
-        <v>-8.88</v>
+        <v>-12.34</v>
       </c>
       <c r="J28" s="1">
-        <v>1.1</v>
+        <v>-1.53</v>
       </c>
       <c r="K28" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L28" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M28" s="1">
         <v>2</v>
@@ -2586,19 +2594,19 @@
         <v>0</v>
       </c>
       <c r="H29" s="1">
-        <v>-2.1</v>
+        <v>-3.3</v>
       </c>
       <c r="I29" s="1">
-        <v>1.1</v>
+        <v>-1.53</v>
       </c>
       <c r="J29" s="1">
-        <v>-36.49</v>
+        <v>-24.05</v>
       </c>
       <c r="K29" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L29" s="1">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M29" s="1">
         <v>2</v>
@@ -2630,19 +2638,19 @@
         <v>0</v>
       </c>
       <c r="H30" s="1">
-        <v>-3.3</v>
+        <v>-2.4</v>
       </c>
       <c r="I30" s="1">
-        <v>1.1</v>
+        <v>-1.53</v>
       </c>
       <c r="J30" s="1">
-        <v>-11.74</v>
+        <v>-9.6</v>
       </c>
       <c r="K30" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M30" s="1">
         <v>2</v>
@@ -2674,19 +2682,19 @@
         <v>0</v>
       </c>
       <c r="H31" s="1">
-        <v>-3.4</v>
+        <v>-2.1</v>
       </c>
       <c r="I31" s="1">
-        <v>-11.74</v>
+        <v>-9.6</v>
       </c>
       <c r="J31" s="1">
-        <v>-35.79</v>
+        <v>-2.59</v>
       </c>
       <c r="K31" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L31" s="1">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="M31" s="1">
         <v>2</v>
@@ -2718,19 +2726,19 @@
         <v>0</v>
       </c>
       <c r="H32" s="1">
-        <v>-3.3</v>
+        <v>-2.1</v>
       </c>
       <c r="I32" s="1">
-        <v>-35.79</v>
+        <v>-2.59</v>
       </c>
       <c r="J32" s="1">
-        <v>-17.65</v>
+        <v>-15</v>
       </c>
       <c r="K32" s="1">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="L32" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M32" s="1">
         <v>2</v>
@@ -2762,19 +2770,19 @@
         <v>0</v>
       </c>
       <c r="H33" s="1">
-        <v>-2.4</v>
+        <v>-2.2</v>
       </c>
       <c r="I33" s="1">
-        <v>-17.65</v>
+        <v>-15</v>
       </c>
       <c r="J33" s="1">
-        <v>1.1</v>
+        <v>-1.53</v>
       </c>
       <c r="K33" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L33" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M33" s="1">
         <v>2</v>
@@ -2806,16 +2814,16 @@
         <v>0</v>
       </c>
       <c r="H34" s="1">
-        <v>-2.2</v>
+        <v>-2.1</v>
       </c>
       <c r="I34" s="1">
-        <v>-35.79</v>
+        <v>-2.59</v>
       </c>
       <c r="J34" s="1">
-        <v>2.16</v>
+        <v>3.72</v>
       </c>
       <c r="K34" s="1">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="L34" s="1">
         <v>2</v>
@@ -2824,7 +2832,7 @@
         <v>2</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2850,25 +2858,25 @@
         <v>0</v>
       </c>
       <c r="H35" s="1">
-        <v>-3.4</v>
+        <v>-2.2</v>
       </c>
       <c r="I35" s="1">
-        <v>2.16</v>
+        <v>3.72</v>
       </c>
       <c r="J35" s="1">
-        <v>-18.57</v>
+        <v>-2.43</v>
       </c>
       <c r="K35" s="1">
         <v>2</v>
       </c>
       <c r="L35" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="M35" s="1">
         <v>2</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2897,13 +2905,13 @@
         <v>-2.4</v>
       </c>
       <c r="I36" s="1">
-        <v>-18.57</v>
+        <v>-2.43</v>
       </c>
       <c r="J36" s="1">
-        <v>-10.53</v>
+        <v>-13.74</v>
       </c>
       <c r="K36" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="L36" s="1">
         <v>9</v>
@@ -2912,7 +2920,7 @@
         <v>2</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2938,25 +2946,25 @@
         <v>0</v>
       </c>
       <c r="H37" s="1">
-        <v>-0.9</v>
+        <v>-2.1</v>
       </c>
       <c r="I37" s="1">
-        <v>-10.53</v>
+        <v>-13.74</v>
       </c>
       <c r="J37" s="1">
-        <v>-35.79</v>
+        <v>-2.59</v>
       </c>
       <c r="K37" s="1">
         <v>9</v>
       </c>
       <c r="L37" s="1">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="M37" s="1">
         <v>2</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2982,19 +2990,19 @@
         <v>0</v>
       </c>
       <c r="H38" s="1">
-        <v>-3.4</v>
+        <v>-2.1</v>
       </c>
       <c r="I38" s="1">
-        <v>2.16</v>
+        <v>-2.43</v>
       </c>
       <c r="J38" s="1">
-        <v>-5.82</v>
+        <v>-13.22</v>
       </c>
       <c r="K38" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L38" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M38" s="1">
         <v>2</v>
@@ -3029,16 +3037,16 @@
         <v>-2.4</v>
       </c>
       <c r="I39" s="1">
-        <v>-5.82</v>
+        <v>-13.22</v>
       </c>
       <c r="J39" s="1">
-        <v>-6.08</v>
+        <v>-1.53</v>
       </c>
       <c r="K39" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L39" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M39" s="1">
         <v>2</v>
@@ -3070,19 +3078,19 @@
         <v>0</v>
       </c>
       <c r="H40" s="1">
-        <v>-2.1</v>
+        <v>-2.2</v>
       </c>
       <c r="I40" s="1">
-        <v>-6.08</v>
+        <v>-1.53</v>
       </c>
       <c r="J40" s="1">
-        <v>-19.3</v>
+        <v>-14.53</v>
       </c>
       <c r="K40" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L40" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M40" s="1">
         <v>2</v>
@@ -3114,19 +3122,19 @@
         <v>0</v>
       </c>
       <c r="H41" s="1">
-        <v>-3.3</v>
+        <v>-2.1</v>
       </c>
       <c r="I41" s="1">
-        <v>-19.3</v>
+        <v>-14.53</v>
       </c>
       <c r="J41" s="1">
-        <v>2.16</v>
+        <v>-2.43</v>
       </c>
       <c r="K41" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L41" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M41" s="1">
         <v>2</v>
@@ -3158,16 +3166,16 @@
         <v>0</v>
       </c>
       <c r="H42" s="1">
-        <v>-3.4</v>
+        <v>-1.5</v>
       </c>
       <c r="I42" s="1">
-        <v>-11.96</v>
+        <v>-1.53</v>
       </c>
       <c r="J42" s="1">
-        <v>-18.58</v>
+        <v>-12.55</v>
       </c>
       <c r="K42" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L42" s="1">
         <v>10</v>
@@ -3176,7 +3184,7 @@
         <v>2</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -3202,25 +3210,25 @@
         <v>0</v>
       </c>
       <c r="H43" s="1">
-        <v>-3.3</v>
+        <v>-0.8</v>
       </c>
       <c r="I43" s="1">
-        <v>-18.58</v>
+        <v>-12.55</v>
       </c>
       <c r="J43" s="1">
-        <v>-5.85</v>
+        <v>-20.51</v>
       </c>
       <c r="K43" s="1">
         <v>10</v>
       </c>
       <c r="L43" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="M43" s="1">
         <v>2</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -3249,22 +3257,22 @@
         <v>-2.4</v>
       </c>
       <c r="I44" s="1">
-        <v>-5.85</v>
+        <v>-20.51</v>
       </c>
       <c r="J44" s="1">
-        <v>1.1</v>
+        <v>-12.86</v>
       </c>
       <c r="K44" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="L44" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M44" s="1">
         <v>2</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -3293,22 +3301,22 @@
         <v>-3.3</v>
       </c>
       <c r="I45" s="1">
-        <v>1.1</v>
+        <v>-12.86</v>
       </c>
       <c r="J45" s="1">
-        <v>-11.96</v>
+        <v>-1.53</v>
       </c>
       <c r="K45" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L45" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M45" s="1">
         <v>2</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -3334,19 +3342,19 @@
         <v>0</v>
       </c>
       <c r="H46" s="1">
-        <v>-2.1</v>
+        <v>-2.4</v>
       </c>
       <c r="I46" s="1">
-        <v>-24.05</v>
+        <v>-20.32</v>
       </c>
       <c r="J46" s="1">
-        <v>-21.73</v>
+        <v>-2.59</v>
       </c>
       <c r="K46" s="1">
         <v>15</v>
       </c>
       <c r="L46" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="M46" s="1">
         <v>2</v>
@@ -3378,16 +3386,16 @@
         <v>0</v>
       </c>
       <c r="H47" s="1">
-        <v>-1.3</v>
+        <v>-3.3</v>
       </c>
       <c r="I47" s="1">
-        <v>-21.73</v>
+        <v>-2.59</v>
       </c>
       <c r="J47" s="1">
-        <v>-12.34</v>
+        <v>-12.91</v>
       </c>
       <c r="K47" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="L47" s="1">
         <v>10</v>
@@ -3422,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="H48" s="1">
-        <v>-2.4</v>
+        <v>-1.1</v>
       </c>
       <c r="I48" s="1">
-        <v>-12.34</v>
+        <v>-12.91</v>
       </c>
       <c r="J48" s="1">
-        <v>-1.53</v>
+        <v>-19.15</v>
       </c>
       <c r="K48" s="1">
         <v>10</v>
       </c>
       <c r="L48" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="M48" s="1">
         <v>2</v>
@@ -3466,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="H49" s="1">
-        <v>-3.3</v>
+        <v>-1</v>
       </c>
       <c r="I49" s="1">
-        <v>-1.53</v>
+        <v>-19.15</v>
       </c>
       <c r="J49" s="1">
-        <v>-24.05</v>
+        <v>-20.32</v>
       </c>
       <c r="K49" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="L49" s="1">
         <v>15</v>
@@ -3513,16 +3521,16 @@
         <v>-2.4</v>
       </c>
       <c r="I50" s="1">
-        <v>-1.53</v>
+        <v>-2.59</v>
       </c>
       <c r="J50" s="1">
-        <v>-9.6</v>
+        <v>-18.81</v>
       </c>
       <c r="K50" s="1">
         <v>3</v>
       </c>
       <c r="L50" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M50" s="1">
         <v>2</v>
@@ -3554,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="H51" s="1">
-        <v>-2.1</v>
+        <v>-3.3</v>
       </c>
       <c r="I51" s="1">
-        <v>-9.6</v>
+        <v>-18.81</v>
       </c>
       <c r="J51" s="1">
-        <v>-2.59</v>
+        <v>-2.43</v>
       </c>
       <c r="K51" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L51" s="1">
         <v>3</v>
@@ -3598,13 +3606,13 @@
         <v>0</v>
       </c>
       <c r="H52" s="1">
-        <v>-2.1</v>
+        <v>-3.4</v>
       </c>
       <c r="I52" s="1">
-        <v>-2.59</v>
+        <v>-2.43</v>
       </c>
       <c r="J52" s="1">
-        <v>-15</v>
+        <v>-15.07</v>
       </c>
       <c r="K52" s="1">
         <v>3</v>
@@ -3642,13 +3650,13 @@
         <v>0</v>
       </c>
       <c r="H53" s="1">
-        <v>-2.2</v>
+        <v>-3.3</v>
       </c>
       <c r="I53" s="1">
-        <v>-15</v>
+        <v>-15.07</v>
       </c>
       <c r="J53" s="1">
-        <v>-1.53</v>
+        <v>-2.59</v>
       </c>
       <c r="K53" s="1">
         <v>10</v>
@@ -3686,19 +3694,19 @@
         <v>0</v>
       </c>
       <c r="H54" s="1">
-        <v>-2.1</v>
+        <v>-2.4</v>
       </c>
       <c r="I54" s="1">
-        <v>-2.59</v>
+        <v>-2.43</v>
       </c>
       <c r="J54" s="1">
-        <v>3.72</v>
+        <v>-15.62</v>
       </c>
       <c r="K54" s="1">
         <v>3</v>
       </c>
       <c r="L54" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="M54" s="1">
         <v>2</v>
@@ -3730,16 +3738,16 @@
         <v>0</v>
       </c>
       <c r="H55" s="1">
-        <v>-2.2</v>
+        <v>-3.3</v>
       </c>
       <c r="I55" s="1">
-        <v>3.72</v>
+        <v>-15.62</v>
       </c>
       <c r="J55" s="1">
         <v>-2.43</v>
       </c>
       <c r="K55" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L55" s="1">
         <v>3</v>
@@ -3780,13 +3788,13 @@
         <v>-2.43</v>
       </c>
       <c r="J56" s="1">
-        <v>-13.74</v>
+        <v>-12.14</v>
       </c>
       <c r="K56" s="1">
         <v>3</v>
       </c>
       <c r="L56" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M56" s="1">
         <v>2</v>
@@ -3821,13 +3829,13 @@
         <v>-2.1</v>
       </c>
       <c r="I57" s="1">
-        <v>-13.74</v>
+        <v>-12.14</v>
       </c>
       <c r="J57" s="1">
-        <v>-2.59</v>
+        <v>-2.43</v>
       </c>
       <c r="K57" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L57" s="1">
         <v>3</v>
@@ -3868,13 +3876,13 @@
         <v>-2.43</v>
       </c>
       <c r="J58" s="1">
-        <v>-13.22</v>
+        <v>-6.04</v>
       </c>
       <c r="K58" s="1">
         <v>3</v>
       </c>
       <c r="L58" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M58" s="1">
         <v>2</v>
@@ -3909,13 +3917,13 @@
         <v>-2.4</v>
       </c>
       <c r="I59" s="1">
-        <v>-13.22</v>
+        <v>-6.04</v>
       </c>
       <c r="J59" s="1">
         <v>-1.53</v>
       </c>
       <c r="K59" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L59" s="1">
         <v>3</v>
@@ -3956,7 +3964,7 @@
         <v>-1.53</v>
       </c>
       <c r="J60" s="1">
-        <v>-14.53</v>
+        <v>-16.18</v>
       </c>
       <c r="K60" s="1">
         <v>3</v>
@@ -3997,7 +4005,7 @@
         <v>-2.1</v>
       </c>
       <c r="I61" s="1">
-        <v>-14.53</v>
+        <v>-16.18</v>
       </c>
       <c r="J61" s="1">
         <v>-2.43</v>
@@ -4020,37 +4028,37 @@
         <v>31</v>
       </c>
       <c r="B62" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C62" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" s="1">
         <v>0</v>
       </c>
       <c r="F62" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G62" s="1">
         <v>0</v>
       </c>
       <c r="H62" s="1">
-        <v>-1.5</v>
+        <v>8.1</v>
       </c>
       <c r="I62" s="1">
-        <v>-1.53</v>
+        <v>-13.74</v>
       </c>
       <c r="J62" s="1">
-        <v>-12.55</v>
+        <v>0.83</v>
       </c>
       <c r="K62" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L62" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M62" s="1">
         <v>2</v>
@@ -4064,43 +4072,43 @@
         <v>31</v>
       </c>
       <c r="B63" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E63" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
       </c>
       <c r="G63" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H63" s="1">
-        <v>-0.8</v>
+        <v>-3.6</v>
       </c>
       <c r="I63" s="1">
-        <v>-12.55</v>
+        <v>0.83</v>
       </c>
       <c r="J63" s="1">
-        <v>-20.51</v>
+        <v>-15.62</v>
       </c>
       <c r="K63" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L63" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M63" s="1">
         <v>2</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -4108,37 +4116,37 @@
         <v>31</v>
       </c>
       <c r="B64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D64" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E64" s="1">
         <v>0</v>
       </c>
       <c r="F64" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G64" s="1">
         <v>0</v>
       </c>
       <c r="H64" s="1">
-        <v>-2.4</v>
+        <v>8.1</v>
       </c>
       <c r="I64" s="1">
-        <v>-20.51</v>
+        <v>-15.62</v>
       </c>
       <c r="J64" s="1">
-        <v>-12.86</v>
+        <v>2.56</v>
       </c>
       <c r="K64" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L64" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M64" s="1">
         <v>2</v>
@@ -4152,43 +4160,43 @@
         <v>31</v>
       </c>
       <c r="B65" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C65" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D65" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E65" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
       </c>
       <c r="G65" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H65" s="1">
-        <v>-3.3</v>
+        <v>8.1</v>
       </c>
       <c r="I65" s="1">
-        <v>-12.86</v>
+        <v>2.56</v>
       </c>
       <c r="J65" s="1">
-        <v>-1.53</v>
+        <v>-13.74</v>
       </c>
       <c r="K65" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L65" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M65" s="1">
         <v>2</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -4214,19 +4222,19 @@
         <v>0</v>
       </c>
       <c r="H66" s="1">
-        <v>-2.4</v>
+        <v>-2.2</v>
       </c>
       <c r="I66" s="1">
-        <v>-20.32</v>
+        <v>-36.49</v>
       </c>
       <c r="J66" s="1">
-        <v>-2.59</v>
+        <v>-12.88</v>
       </c>
       <c r="K66" s="1">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="L66" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M66" s="1">
         <v>2</v>
@@ -4258,19 +4266,19 @@
         <v>0</v>
       </c>
       <c r="H67" s="1">
-        <v>-3.3</v>
+        <v>-2.4</v>
       </c>
       <c r="I67" s="1">
-        <v>-2.59</v>
+        <v>-12.88</v>
       </c>
       <c r="J67" s="1">
-        <v>-12.91</v>
+        <v>-8.88</v>
       </c>
       <c r="K67" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L67" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M67" s="1">
         <v>2</v>
@@ -4302,19 +4310,19 @@
         <v>0</v>
       </c>
       <c r="H68" s="1">
-        <v>-1.1</v>
+        <v>-2.1</v>
       </c>
       <c r="I68" s="1">
-        <v>-12.91</v>
+        <v>-8.88</v>
       </c>
       <c r="J68" s="1">
-        <v>-19.15</v>
+        <v>1.1</v>
       </c>
       <c r="K68" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L68" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="M68" s="1">
         <v>2</v>
@@ -4346,19 +4354,19 @@
         <v>0</v>
       </c>
       <c r="H69" s="1">
-        <v>-1</v>
+        <v>-2.1</v>
       </c>
       <c r="I69" s="1">
-        <v>-19.15</v>
+        <v>1.1</v>
       </c>
       <c r="J69" s="1">
-        <v>-20.32</v>
+        <v>-36.49</v>
       </c>
       <c r="K69" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="L69" s="1">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M69" s="1">
         <v>2</v>
@@ -4390,19 +4398,19 @@
         <v>0</v>
       </c>
       <c r="H70" s="1">
-        <v>-2.4</v>
+        <v>-3.3</v>
       </c>
       <c r="I70" s="1">
-        <v>-2.59</v>
+        <v>1.1</v>
       </c>
       <c r="J70" s="1">
-        <v>-18.81</v>
+        <v>-11.74</v>
       </c>
       <c r="K70" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L70" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M70" s="1">
         <v>2</v>
@@ -4434,19 +4442,19 @@
         <v>0</v>
       </c>
       <c r="H71" s="1">
-        <v>-3.3</v>
+        <v>-3.4</v>
       </c>
       <c r="I71" s="1">
-        <v>-18.81</v>
+        <v>-11.74</v>
       </c>
       <c r="J71" s="1">
-        <v>-2.43</v>
+        <v>-35.79</v>
       </c>
       <c r="K71" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="L71" s="1">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="M71" s="1">
         <v>2</v>
@@ -4478,19 +4486,19 @@
         <v>0</v>
       </c>
       <c r="H72" s="1">
-        <v>-3.4</v>
+        <v>-3.3</v>
       </c>
       <c r="I72" s="1">
-        <v>-2.43</v>
+        <v>-35.79</v>
       </c>
       <c r="J72" s="1">
-        <v>-15.07</v>
+        <v>-17.65</v>
       </c>
       <c r="K72" s="1">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="L72" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M72" s="1">
         <v>2</v>
@@ -4522,19 +4530,19 @@
         <v>0</v>
       </c>
       <c r="H73" s="1">
-        <v>-3.3</v>
+        <v>-2.4</v>
       </c>
       <c r="I73" s="1">
-        <v>-15.07</v>
+        <v>-17.65</v>
       </c>
       <c r="J73" s="1">
-        <v>-2.59</v>
+        <v>1.1</v>
       </c>
       <c r="K73" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L73" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M73" s="1">
         <v>2</v>
@@ -4566,25 +4574,25 @@
         <v>0</v>
       </c>
       <c r="H74" s="1">
-        <v>-2.4</v>
+        <v>-2.2</v>
       </c>
       <c r="I74" s="1">
-        <v>-2.43</v>
+        <v>-35.79</v>
       </c>
       <c r="J74" s="1">
-        <v>-15.62</v>
+        <v>2.16</v>
       </c>
       <c r="K74" s="1">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="L74" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="M74" s="1">
         <v>2</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -4610,25 +4618,25 @@
         <v>0</v>
       </c>
       <c r="H75" s="1">
-        <v>-3.3</v>
+        <v>-3.4</v>
       </c>
       <c r="I75" s="1">
-        <v>-15.62</v>
+        <v>2.16</v>
       </c>
       <c r="J75" s="1">
-        <v>-2.43</v>
+        <v>-18.57</v>
       </c>
       <c r="K75" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="L75" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="M75" s="1">
         <v>2</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -4657,22 +4665,22 @@
         <v>-2.4</v>
       </c>
       <c r="I76" s="1">
-        <v>-2.43</v>
+        <v>-18.57</v>
       </c>
       <c r="J76" s="1">
-        <v>-12.14</v>
+        <v>-10.53</v>
       </c>
       <c r="K76" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L76" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M76" s="1">
         <v>2</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -4698,25 +4706,25 @@
         <v>0</v>
       </c>
       <c r="H77" s="1">
-        <v>-2.1</v>
+        <v>-0.9</v>
       </c>
       <c r="I77" s="1">
-        <v>-12.14</v>
+        <v>-10.53</v>
       </c>
       <c r="J77" s="1">
-        <v>-2.43</v>
+        <v>-35.79</v>
       </c>
       <c r="K77" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L77" s="1">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="M77" s="1">
         <v>2</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -4742,16 +4750,16 @@
         <v>0</v>
       </c>
       <c r="H78" s="1">
-        <v>-2.1</v>
+        <v>-3.4</v>
       </c>
       <c r="I78" s="1">
-        <v>-2.43</v>
+        <v>2.16</v>
       </c>
       <c r="J78" s="1">
-        <v>-6.04</v>
+        <v>-5.82</v>
       </c>
       <c r="K78" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L78" s="1">
         <v>6</v>
@@ -4789,16 +4797,16 @@
         <v>-2.4</v>
       </c>
       <c r="I79" s="1">
-        <v>-6.04</v>
+        <v>-5.82</v>
       </c>
       <c r="J79" s="1">
-        <v>-1.53</v>
+        <v>-6.08</v>
       </c>
       <c r="K79" s="1">
         <v>6</v>
       </c>
       <c r="L79" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M79" s="1">
         <v>2</v>
@@ -4830,19 +4838,19 @@
         <v>0</v>
       </c>
       <c r="H80" s="1">
-        <v>-2.2</v>
+        <v>-2.1</v>
       </c>
       <c r="I80" s="1">
-        <v>-1.53</v>
+        <v>-6.08</v>
       </c>
       <c r="J80" s="1">
-        <v>-16.18</v>
+        <v>-19.3</v>
       </c>
       <c r="K80" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L80" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M80" s="1">
         <v>2</v>
@@ -4874,19 +4882,19 @@
         <v>0</v>
       </c>
       <c r="H81" s="1">
-        <v>-2.1</v>
+        <v>-3.3</v>
       </c>
       <c r="I81" s="1">
-        <v>-16.18</v>
+        <v>-19.3</v>
       </c>
       <c r="J81" s="1">
-        <v>-2.43</v>
+        <v>2.16</v>
       </c>
       <c r="K81" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L81" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M81" s="1">
         <v>2</v>
@@ -4900,37 +4908,37 @@
         <v>36</v>
       </c>
       <c r="B82" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C82" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82" s="1">
         <v>0</v>
       </c>
       <c r="F82" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G82" s="1">
         <v>0</v>
       </c>
       <c r="H82" s="1">
-        <v>6.6</v>
+        <v>-2.2</v>
       </c>
       <c r="I82" s="1">
-        <v>-13.74</v>
+        <v>-10.69</v>
       </c>
       <c r="J82" s="1">
-        <v>0.83</v>
+        <v>-12.64</v>
       </c>
       <c r="K82" s="1">
         <v>9</v>
       </c>
       <c r="L82" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M82" s="1">
         <v>2</v>
@@ -4944,43 +4952,43 @@
         <v>36</v>
       </c>
       <c r="B83" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C83" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E83" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F83" s="1">
         <v>0</v>
       </c>
       <c r="G83" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H83" s="1">
-        <v>-3.6</v>
+        <v>-2.1</v>
       </c>
       <c r="I83" s="1">
-        <v>0.83</v>
+        <v>-12.64</v>
       </c>
       <c r="J83" s="1">
-        <v>-15.62</v>
+        <v>-11.08</v>
       </c>
       <c r="K83" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L83" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M83" s="1">
         <v>2</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -4988,37 +4996,37 @@
         <v>36</v>
       </c>
       <c r="B84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D84" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E84" s="1">
         <v>0</v>
       </c>
       <c r="F84" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G84" s="1">
         <v>0</v>
       </c>
       <c r="H84" s="1">
-        <v>6.9</v>
+        <v>-2.4</v>
       </c>
       <c r="I84" s="1">
-        <v>-15.62</v>
+        <v>-11.08</v>
       </c>
       <c r="J84" s="1">
-        <v>2.56</v>
+        <v>-10.84</v>
       </c>
       <c r="K84" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L84" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M84" s="1">
         <v>2</v>
@@ -5032,34 +5040,34 @@
         <v>36</v>
       </c>
       <c r="B85" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C85" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D85" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E85" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F85" s="1">
         <v>0</v>
       </c>
       <c r="G85" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H85" s="1">
-        <v>6.9</v>
+        <v>-3.3</v>
       </c>
       <c r="I85" s="1">
-        <v>2.56</v>
+        <v>-10.84</v>
       </c>
       <c r="J85" s="1">
-        <v>-13.74</v>
+        <v>-10.69</v>
       </c>
       <c r="K85" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L85" s="1">
         <v>9</v>
@@ -5068,7 +5076,7 @@
         <v>2</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -5079,10 +5087,10 @@
         <v>0</v>
       </c>
       <c r="C86" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86" s="1">
         <v>0</v>
@@ -5094,19 +5102,19 @@
         <v>0</v>
       </c>
       <c r="H86" s="1">
-        <v>6.9</v>
+        <v>-2.4</v>
       </c>
       <c r="I86" s="1">
-        <v>-12.07</v>
+        <v>-11.08</v>
       </c>
       <c r="J86" s="1">
-        <v>-3.76</v>
+        <v>-4.43</v>
       </c>
       <c r="K86" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L86" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M86" s="1">
         <v>2</v>
@@ -5120,13 +5128,13 @@
         <v>37</v>
       </c>
       <c r="B87" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E87" s="1">
         <v>0</v>
@@ -5138,19 +5146,19 @@
         <v>0</v>
       </c>
       <c r="H87" s="1">
-        <v>-3.5</v>
+        <v>-2.2</v>
       </c>
       <c r="I87" s="1">
-        <v>-3.76</v>
+        <v>-4.43</v>
       </c>
       <c r="J87" s="1">
-        <v>-3.63</v>
+        <v>-14.3</v>
       </c>
       <c r="K87" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L87" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M87" s="1">
         <v>2</v>
@@ -5164,10 +5172,10 @@
         <v>37</v>
       </c>
       <c r="B88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D88" s="1">
         <v>0</v>
@@ -5182,19 +5190,19 @@
         <v>0</v>
       </c>
       <c r="H88" s="1">
+        <v>-0.9</v>
+      </c>
+      <c r="I88" s="1">
+        <v>-14.3</v>
+      </c>
+      <c r="J88" s="1">
+        <v>-6.32</v>
+      </c>
+      <c r="K88" s="1">
+        <v>8</v>
+      </c>
+      <c r="L88" s="1">
         <v>6</v>
-      </c>
-      <c r="I88" s="1">
-        <v>-3.63</v>
-      </c>
-      <c r="J88" s="1">
-        <v>-6.86</v>
-      </c>
-      <c r="K88" s="1">
-        <v>5</v>
-      </c>
-      <c r="L88" s="1">
-        <v>5</v>
       </c>
       <c r="M88" s="1">
         <v>2</v>
@@ -5208,13 +5216,13 @@
         <v>37</v>
       </c>
       <c r="B89" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C89" s="1">
         <v>0</v>
       </c>
       <c r="D89" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E89" s="1">
         <v>0</v>
@@ -5226,19 +5234,19 @@
         <v>0</v>
       </c>
       <c r="H89" s="1">
-        <v>-2.1</v>
+        <v>-1.3</v>
       </c>
       <c r="I89" s="1">
-        <v>-6.86</v>
+        <v>-6.32</v>
       </c>
       <c r="J89" s="1">
-        <v>-12.07</v>
+        <v>-11.08</v>
       </c>
       <c r="K89" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L89" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M89" s="1">
         <v>2</v>
@@ -5255,10 +5263,10 @@
         <v>0</v>
       </c>
       <c r="C90" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" s="1">
         <v>0</v>
@@ -5270,25 +5278,25 @@
         <v>0</v>
       </c>
       <c r="H90" s="1">
-        <v>6.9</v>
+        <v>-1.1</v>
       </c>
       <c r="I90" s="1">
-        <v>-0.34</v>
+        <v>-4.43</v>
       </c>
       <c r="J90" s="1">
-        <v>-1.43</v>
+        <v>-14.13</v>
       </c>
       <c r="K90" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L90" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M90" s="1">
         <v>2</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -5296,13 +5304,13 @@
         <v>38</v>
       </c>
       <c r="B91" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E91" s="1">
         <v>0</v>
@@ -5314,25 +5322,25 @@
         <v>0</v>
       </c>
       <c r="H91" s="1">
-        <v>-3.7</v>
+        <v>-2.1</v>
       </c>
       <c r="I91" s="1">
-        <v>-1.43</v>
+        <v>-14.13</v>
       </c>
       <c r="J91" s="1">
-        <v>-6.78</v>
+        <v>-6.32</v>
       </c>
       <c r="K91" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L91" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M91" s="1">
         <v>2</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -5340,10 +5348,10 @@
         <v>38</v>
       </c>
       <c r="B92" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D92" s="1">
         <v>0</v>
@@ -5358,25 +5366,25 @@
         <v>0</v>
       </c>
       <c r="H92" s="1">
+        <v>-2.1</v>
+      </c>
+      <c r="I92" s="1">
+        <v>-6.32</v>
+      </c>
+      <c r="J92" s="1">
+        <v>-11.57</v>
+      </c>
+      <c r="K92" s="1">
         <v>6</v>
       </c>
-      <c r="I92" s="1">
-        <v>-6.78</v>
-      </c>
-      <c r="J92" s="1">
-        <v>-6.85</v>
-      </c>
-      <c r="K92" s="1">
-        <v>5</v>
-      </c>
       <c r="L92" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M92" s="1">
         <v>2</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -5384,13 +5392,13 @@
         <v>38</v>
       </c>
       <c r="B93" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C93" s="1">
         <v>0</v>
       </c>
       <c r="D93" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E93" s="1">
         <v>0</v>
@@ -5402,25 +5410,25 @@
         <v>0</v>
       </c>
       <c r="H93" s="1">
-        <v>-0.7</v>
+        <v>-0.9</v>
       </c>
       <c r="I93" s="1">
-        <v>-6.85</v>
+        <v>-11.57</v>
       </c>
       <c r="J93" s="1">
-        <v>-0.34</v>
+        <v>-4.43</v>
       </c>
       <c r="K93" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L93" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M93" s="1">
         <v>2</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -5446,19 +5454,19 @@
         <v>0</v>
       </c>
       <c r="H94" s="1">
-        <v>-2.2</v>
+        <v>-2.1</v>
       </c>
       <c r="I94" s="1">
-        <v>-10.69</v>
+        <v>-10.75</v>
       </c>
       <c r="J94" s="1">
-        <v>-12.64</v>
+        <v>-15.15</v>
       </c>
       <c r="K94" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L94" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M94" s="1">
         <v>2</v>
@@ -5490,16 +5498,16 @@
         <v>0</v>
       </c>
       <c r="H95" s="1">
-        <v>-2.1</v>
+        <v>-2.4</v>
       </c>
       <c r="I95" s="1">
-        <v>-12.64</v>
+        <v>-15.15</v>
       </c>
       <c r="J95" s="1">
-        <v>-11.08</v>
+        <v>-14.3</v>
       </c>
       <c r="K95" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L95" s="1">
         <v>8</v>
@@ -5534,19 +5542,19 @@
         <v>0</v>
       </c>
       <c r="H96" s="1">
-        <v>-2.4</v>
+        <v>-3.3</v>
       </c>
       <c r="I96" s="1">
-        <v>-11.08</v>
+        <v>-14.3</v>
       </c>
       <c r="J96" s="1">
-        <v>-10.84</v>
+        <v>-18.93</v>
       </c>
       <c r="K96" s="1">
         <v>8</v>
       </c>
       <c r="L96" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M96" s="1">
         <v>2</v>
@@ -5578,19 +5586,19 @@
         <v>0</v>
       </c>
       <c r="H97" s="1">
-        <v>-3.3</v>
+        <v>-2.4</v>
       </c>
       <c r="I97" s="1">
-        <v>-10.84</v>
+        <v>-18.93</v>
       </c>
       <c r="J97" s="1">
-        <v>-10.69</v>
+        <v>-10.75</v>
       </c>
       <c r="K97" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L97" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M97" s="1">
         <v>2</v>
@@ -5622,19 +5630,19 @@
         <v>0</v>
       </c>
       <c r="H98" s="1">
-        <v>-2.4</v>
+        <v>-3.4</v>
       </c>
       <c r="I98" s="1">
-        <v>-11.08</v>
+        <v>-21</v>
       </c>
       <c r="J98" s="1">
-        <v>-4.43</v>
+        <v>-11.05</v>
       </c>
       <c r="K98" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L98" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M98" s="1">
         <v>2</v>
@@ -5654,7 +5662,7 @@
         <v>0</v>
       </c>
       <c r="D99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" s="1">
         <v>0</v>
@@ -5666,19 +5674,19 @@
         <v>0</v>
       </c>
       <c r="H99" s="1">
-        <v>-2.2</v>
+        <v>-3.3</v>
       </c>
       <c r="I99" s="1">
-        <v>-4.43</v>
+        <v>-11.05</v>
       </c>
       <c r="J99" s="1">
-        <v>-14.3</v>
+        <v>-2.59</v>
       </c>
       <c r="K99" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L99" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M99" s="1">
         <v>2</v>
@@ -5695,7 +5703,7 @@
         <v>0</v>
       </c>
       <c r="C100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100" s="1">
         <v>0</v>
@@ -5710,19 +5718,19 @@
         <v>0</v>
       </c>
       <c r="H100" s="1">
-        <v>-0.9</v>
+        <v>-4</v>
       </c>
       <c r="I100" s="1">
-        <v>-14.3</v>
+        <v>-2.59</v>
       </c>
       <c r="J100" s="1">
-        <v>-6.32</v>
+        <v>1.1</v>
       </c>
       <c r="K100" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L100" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M100" s="1">
         <v>2</v>
@@ -5736,7 +5744,7 @@
         <v>40</v>
       </c>
       <c r="B101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" s="1">
         <v>0</v>
@@ -5754,19 +5762,19 @@
         <v>0</v>
       </c>
       <c r="H101" s="1">
-        <v>-1.3</v>
+        <v>-3.3</v>
       </c>
       <c r="I101" s="1">
-        <v>-6.32</v>
+        <v>1.1</v>
       </c>
       <c r="J101" s="1">
-        <v>-11.08</v>
+        <v>-21</v>
       </c>
       <c r="K101" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L101" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M101" s="1">
         <v>2</v>
@@ -5783,10 +5791,10 @@
         <v>0</v>
       </c>
       <c r="C102" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102" s="1">
         <v>0</v>
@@ -5798,25 +5806,25 @@
         <v>0</v>
       </c>
       <c r="H102" s="1">
-        <v>-1.1</v>
+        <v>8.1</v>
       </c>
       <c r="I102" s="1">
-        <v>-4.43</v>
+        <v>-10.56</v>
       </c>
       <c r="J102" s="1">
-        <v>-14.13</v>
+        <v>-3.76</v>
       </c>
       <c r="K102" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L102" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M102" s="1">
         <v>2</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -5824,13 +5832,13 @@
         <v>41</v>
       </c>
       <c r="B103" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D103" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E103" s="1">
         <v>0</v>
@@ -5842,25 +5850,25 @@
         <v>0</v>
       </c>
       <c r="H103" s="1">
-        <v>-2.1</v>
+        <v>-3.6</v>
       </c>
       <c r="I103" s="1">
-        <v>-14.13</v>
+        <v>-3.76</v>
       </c>
       <c r="J103" s="1">
-        <v>-6.32</v>
+        <v>-21</v>
       </c>
       <c r="K103" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="L103" s="1">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="M103" s="1">
         <v>2</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -5868,10 +5876,10 @@
         <v>41</v>
       </c>
       <c r="B104" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C104" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D104" s="1">
         <v>0</v>
@@ -5886,25 +5894,25 @@
         <v>0</v>
       </c>
       <c r="H104" s="1">
-        <v>-2.1</v>
+        <v>8.1</v>
       </c>
       <c r="I104" s="1">
-        <v>-6.32</v>
+        <v>-21</v>
       </c>
       <c r="J104" s="1">
-        <v>-11.57</v>
+        <v>-6.62</v>
       </c>
       <c r="K104" s="1">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="L104" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="M104" s="1">
         <v>2</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -5912,13 +5920,13 @@
         <v>41</v>
       </c>
       <c r="B105" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C105" s="1">
         <v>0</v>
       </c>
       <c r="D105" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E105" s="1">
         <v>0</v>
@@ -5930,25 +5938,25 @@
         <v>0</v>
       </c>
       <c r="H105" s="1">
-        <v>-0.9</v>
+        <v>-2.2</v>
       </c>
       <c r="I105" s="1">
-        <v>-11.57</v>
+        <v>-6.62</v>
       </c>
       <c r="J105" s="1">
-        <v>-4.43</v>
+        <v>-10.56</v>
       </c>
       <c r="K105" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="L105" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M105" s="1">
         <v>2</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -5959,10 +5967,10 @@
         <v>0</v>
       </c>
       <c r="C106" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E106" s="1">
         <v>0</v>
@@ -5974,25 +5982,25 @@
         <v>0</v>
       </c>
       <c r="H106" s="1">
-        <v>-2.1</v>
+        <v>8.1</v>
       </c>
       <c r="I106" s="1">
-        <v>-10.75</v>
+        <v>-10.56</v>
       </c>
       <c r="J106" s="1">
-        <v>-15.15</v>
+        <v>-3.76</v>
       </c>
       <c r="K106" s="1">
         <v>7</v>
       </c>
       <c r="L106" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="M106" s="1">
         <v>2</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -6000,13 +6008,13 @@
         <v>42</v>
       </c>
       <c r="B107" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D107" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E107" s="1">
         <v>0</v>
@@ -6018,25 +6026,25 @@
         <v>0</v>
       </c>
       <c r="H107" s="1">
-        <v>-2.4</v>
+        <v>-3.6</v>
       </c>
       <c r="I107" s="1">
-        <v>-15.15</v>
+        <v>-3.76</v>
       </c>
       <c r="J107" s="1">
-        <v>-14.3</v>
+        <v>-20.04</v>
       </c>
       <c r="K107" s="1">
+        <v>4</v>
+      </c>
+      <c r="L107" s="1">
         <v>11</v>
       </c>
-      <c r="L107" s="1">
-        <v>8</v>
-      </c>
       <c r="M107" s="1">
         <v>2</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -6044,10 +6052,10 @@
         <v>42</v>
       </c>
       <c r="B108" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D108" s="1">
         <v>0</v>
@@ -6062,25 +6070,25 @@
         <v>0</v>
       </c>
       <c r="H108" s="1">
-        <v>-3.3</v>
+        <v>8.1</v>
       </c>
       <c r="I108" s="1">
-        <v>-14.3</v>
+        <v>-20.04</v>
       </c>
       <c r="J108" s="1">
-        <v>-18.93</v>
+        <v>-6.62</v>
       </c>
       <c r="K108" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L108" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="M108" s="1">
         <v>2</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -6088,13 +6096,13 @@
         <v>42</v>
       </c>
       <c r="B109" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C109" s="1">
         <v>0</v>
       </c>
       <c r="D109" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E109" s="1">
         <v>0</v>
@@ -6106,16 +6114,16 @@
         <v>0</v>
       </c>
       <c r="H109" s="1">
-        <v>-2.4</v>
+        <v>-2.2</v>
       </c>
       <c r="I109" s="1">
-        <v>-18.93</v>
+        <v>-6.62</v>
       </c>
       <c r="J109" s="1">
-        <v>-10.75</v>
+        <v>-10.56</v>
       </c>
       <c r="K109" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="L109" s="1">
         <v>7</v>
@@ -6124,7 +6132,7 @@
         <v>2</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -6153,13 +6161,13 @@
         <v>-2.4</v>
       </c>
       <c r="I110" s="1">
-        <v>-6.93</v>
+        <v>-2.89</v>
       </c>
       <c r="J110" s="1">
-        <v>-0.1</v>
+        <v>-0.26</v>
       </c>
       <c r="K110" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L110" s="1">
         <v>3</v>
@@ -6197,7 +6205,7 @@
         <v>-3.4</v>
       </c>
       <c r="I111" s="1">
-        <v>-0.1</v>
+        <v>-0.26</v>
       </c>
       <c r="J111" s="1">
         <v>-6.92</v>
@@ -6238,19 +6246,19 @@
         <v>0</v>
       </c>
       <c r="H112" s="1">
-        <v>-2.4</v>
+        <v>-3.3</v>
       </c>
       <c r="I112" s="1">
         <v>-6.92</v>
       </c>
       <c r="J112" s="1">
-        <v>-0.96</v>
+        <v>-10.66</v>
       </c>
       <c r="K112" s="1">
         <v>7</v>
       </c>
       <c r="L112" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M112" s="1">
         <v>2</v>
@@ -6282,19 +6290,19 @@
         <v>0</v>
       </c>
       <c r="H113" s="1">
-        <v>-1.3</v>
+        <v>-2.1</v>
       </c>
       <c r="I113" s="1">
-        <v>-0.96</v>
+        <v>-10.66</v>
       </c>
       <c r="J113" s="1">
-        <v>-6.93</v>
+        <v>-2.89</v>
       </c>
       <c r="K113" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L113" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M113" s="1">
         <v>2</v>
@@ -6311,10 +6319,10 @@
         <v>0</v>
       </c>
       <c r="C114" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D114" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E114" s="1">
         <v>0</v>
@@ -6326,19 +6334,19 @@
         <v>0</v>
       </c>
       <c r="H114" s="1">
-        <v>6.9</v>
+        <v>-2.4</v>
       </c>
       <c r="I114" s="1">
-        <v>-10.31</v>
+        <v>-6.93</v>
       </c>
       <c r="J114" s="1">
-        <v>-1.43</v>
+        <v>-0.1</v>
       </c>
       <c r="K114" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L114" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M114" s="1">
         <v>2</v>
@@ -6352,13 +6360,13 @@
         <v>44</v>
       </c>
       <c r="B115" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C115" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D115" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E115" s="1">
         <v>0</v>
@@ -6370,19 +6378,19 @@
         <v>0</v>
       </c>
       <c r="H115" s="1">
-        <v>-3.7</v>
+        <v>-3.4</v>
       </c>
       <c r="I115" s="1">
-        <v>-1.43</v>
+        <v>-0.1</v>
       </c>
       <c r="J115" s="1">
-        <v>-6.78</v>
+        <v>-6.92</v>
       </c>
       <c r="K115" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L115" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M115" s="1">
         <v>2</v>
@@ -6396,10 +6404,10 @@
         <v>44</v>
       </c>
       <c r="B116" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C116" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D116" s="1">
         <v>0</v>
@@ -6414,19 +6422,19 @@
         <v>0</v>
       </c>
       <c r="H116" s="1">
-        <v>6</v>
+        <v>-2.4</v>
       </c>
       <c r="I116" s="1">
-        <v>-6.78</v>
+        <v>-6.92</v>
       </c>
       <c r="J116" s="1">
-        <v>-6.85</v>
+        <v>-0.96</v>
       </c>
       <c r="K116" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L116" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M116" s="1">
         <v>2</v>
@@ -6440,13 +6448,13 @@
         <v>44</v>
       </c>
       <c r="B117" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C117" s="1">
         <v>0</v>
       </c>
       <c r="D117" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E117" s="1">
         <v>0</v>
@@ -6458,19 +6466,19 @@
         <v>0</v>
       </c>
       <c r="H117" s="1">
-        <v>-0.7</v>
+        <v>-1.3</v>
       </c>
       <c r="I117" s="1">
-        <v>-6.85</v>
+        <v>-0.96</v>
       </c>
       <c r="J117" s="1">
-        <v>-10.31</v>
+        <v>-6.93</v>
       </c>
       <c r="K117" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L117" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M117" s="1">
         <v>2</v>
